--- a/DESIGN/rules/Example 3 - Auto Policy Calculation/AutoPolicyCalculation.xlsx
+++ b/DESIGN/rules/Example 3 - Auto Policy Calculation/AutoPolicyCalculation.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="280">
   <si>
     <t>Driver</t>
   </si>
@@ -2462,6 +2462,9 @@
   </si>
   <si>
     <t>Determine Driver Score by Driver status and eligibilitywe</t>
+  </si>
+  <si>
+    <t>Unique Driver Idxqweqwx</t>
   </si>
 </sst>
 </file>
@@ -3581,15 +3584,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="6.33203125" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="1" width="15.88671875" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="1" width="18.109375" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="1" width="50.0" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" style="1" width="76.88671875" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" style="1" width="18.33203125" collapsed="false"/>
-    <col min="7" max="7" style="1" width="9.109375" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" style="1" width="42.44140625" collapsed="false"/>
-    <col min="9" max="16384" style="1" width="9.109375" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" style="1" width="6.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="15.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="18.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="50.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="76.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="18.33203125" collapsed="true"/>
+    <col min="7" max="7" style="1" width="9.109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="42.44140625" collapsed="true"/>
+    <col min="9" max="16384" style="1" width="9.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.25">
@@ -3910,7 +3913,7 @@
         <v>0</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>257</v>
+        <v>279</v>
       </c>
       <c r="E31" s="16" t="s">
         <v>253</v>
@@ -4359,12 +4362,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="26.0" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="31.6640625" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="10.5546875" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="46.88671875" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="37.0" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="20.6640625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="31.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="10.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="46.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="37.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="20.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
@@ -4448,9 +4451,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="14.109375" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="23.88671875" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="11.44140625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="14.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="23.88671875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
@@ -4982,10 +4985,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="9.109375" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="3" width="14.5546875" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="3" width="34.0" collapsed="false"/>
-    <col min="4" max="16384" style="3" width="9.109375" collapsed="false"/>
+    <col min="1" max="1" style="3" width="9.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="14.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="34.0" collapsed="true"/>
+    <col min="4" max="16384" style="3" width="9.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
@@ -5714,10 +5717,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="14.33203125" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="17.0" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="15.6640625" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="18.33203125" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:6" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
@@ -5782,13 +5785,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.0" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="13" width="16.33203125" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="22.6640625" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="23.109375" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="24.33203125" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="48.109375" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="16.33203125" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="13" width="16.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="23.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="24.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="48.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="16.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:11" ht="13.8" x14ac:dyDescent="0.3">
@@ -6218,8 +6221,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="27.5546875" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="65.6640625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="27.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="65.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
@@ -6303,13 +6306,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.109375" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="13" width="11.33203125" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="14.88671875" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="31.5546875" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="21.6640625" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="25.6640625" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="11.6640625" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="17.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="13" width="11.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="31.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="21.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="25.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="11.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
@@ -6659,9 +6662,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="33.5546875" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="29.109375" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="38.6640625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="33.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="29.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="38.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
@@ -6889,10 +6892,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="34.44140625" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="44.33203125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="11.5546875" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="34.5546875" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="34.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="44.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="34.5546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
@@ -6988,11 +6991,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="43.0" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="32.44140625" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="23.44140625" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="10.0" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="43.109375" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="43.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="32.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="23.44140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="43.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
@@ -7101,13 +7104,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.5546875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="7.0" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="21.0" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="40.5546875" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="28.6640625" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="14.109375" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="22.88671875" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="14.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="40.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="28.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="22.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
@@ -7695,13 +7698,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="16.0" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="18.0" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="21.88671875" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="42.44140625" collapsed="false"/>
-    <col min="17" max="17" customWidth="true" width="24.88671875" collapsed="false"/>
-    <col min="18" max="18" customWidth="true" width="24.0" collapsed="false"/>
-    <col min="19" max="19" customWidth="true" width="25.33203125" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="21.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="42.44140625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="24.88671875" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="25.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">

--- a/DESIGN/rules/Example 3 - Auto Policy Calculation/AutoPolicyCalculation.xlsx
+++ b/DESIGN/rules/Example 3 - Auto Policy Calculation/AutoPolicyCalculation.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="280">
   <si>
     <t>Driver</t>
   </si>
@@ -2462,6 +2462,9 @@
   </si>
   <si>
     <t>Determine Driver Score by Driver status and eligibilitywe</t>
+  </si>
+  <si>
+    <t>Unique Driver Id2</t>
   </si>
 </sst>
 </file>
@@ -3910,7 +3913,7 @@
         <v>0</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>257</v>
+        <v>279</v>
       </c>
       <c r="E31" s="16" t="s">
         <v>253</v>

--- a/DESIGN/rules/Example 3 - Auto Policy Calculation/AutoPolicyCalculation.xlsx
+++ b/DESIGN/rules/Example 3 - Auto Policy Calculation/AutoPolicyCalculation.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="281">
   <si>
     <t>Driver</t>
   </si>
@@ -2465,6 +2465,9 @@
   </si>
   <si>
     <t>Unique Driver Id2</t>
+  </si>
+  <si>
+    <t>Per Accident Premium 1</t>
   </si>
 </sst>
 </file>
@@ -7971,7 +7974,7 @@
       <c r="D28" s="37"/>
       <c r="E28" s="37"/>
       <c r="F28" s="83" t="s">
-        <v>66</v>
+        <v>280</v>
       </c>
       <c r="G28" s="6"/>
     </row>
